--- a/app/vistas/Import/subidas/ejemploEstu.xlsx
+++ b/app/vistas/Import/subidas/ejemploEstu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\neo\app\vistas\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A17D2-41BA-4C22-A9D2-BFB630E952B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542A439F-45D7-4A18-91D1-F11168756487}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55599993-8CC0-4731-8C75-F355957A80E5}"/>
   </bookViews>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
-  <si>
-    <t>02019225901</t>
-  </si>
-  <si>
-    <t>02019225902</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="65">
   <si>
     <t>02019225903</t>
   </si>
@@ -60,9 +54,6 @@
     <t>estudiante 1</t>
   </si>
   <si>
-    <t>estudiante 2</t>
-  </si>
-  <si>
     <t>estudiante 3</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>42335621</t>
   </si>
   <si>
-    <t>42335622</t>
-  </si>
-  <si>
     <t>42335623</t>
   </si>
   <si>
@@ -123,9 +111,6 @@
     <t>estu1</t>
   </si>
   <si>
-    <t>estu2</t>
-  </si>
-  <si>
     <t>estu3</t>
   </si>
   <si>
@@ -153,39 +138,9 @@
     <t>20111</t>
   </si>
   <si>
-    <t>20112</t>
-  </si>
-  <si>
-    <t>20113</t>
-  </si>
-  <si>
-    <t>20114</t>
-  </si>
-  <si>
-    <t>20115</t>
-  </si>
-  <si>
-    <t>20116</t>
-  </si>
-  <si>
-    <t>20117</t>
-  </si>
-  <si>
-    <t>20118</t>
-  </si>
-  <si>
-    <t>20119</t>
-  </si>
-  <si>
-    <t>20120</t>
-  </si>
-  <si>
     <t>17-10-2000</t>
   </si>
   <si>
-    <t>18-10-2000</t>
-  </si>
-  <si>
     <t>19-10-2000</t>
   </si>
   <si>
@@ -211,6 +166,60 @@
   </si>
   <si>
     <t>09-03-2000</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>anionacimiento</t>
+  </si>
+  <si>
+    <t>fechaingreso</t>
+  </si>
+  <si>
+    <t>dni</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>02019225911</t>
+  </si>
+  <si>
+    <t>201111</t>
+  </si>
+  <si>
+    <t>201112</t>
+  </si>
+  <si>
+    <t>201113</t>
+  </si>
+  <si>
+    <t>201114</t>
+  </si>
+  <si>
+    <t>201115</t>
+  </si>
+  <si>
+    <t>201116</t>
+  </si>
+  <si>
+    <t>201118</t>
+  </si>
+  <si>
+    <t>201119</t>
   </si>
 </sst>
 </file>
@@ -584,7 +593,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,292 +607,292 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1">
-        <v>960562141</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1">
         <v>960562141</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>30</v>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H3" s="1">
         <v>960562141</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1">
         <v>960562141</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1">
         <v>960562141</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>960562141</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H7" s="1">
         <v>960562141</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8" s="1">
         <v>960562141</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1">
         <v>960562141</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1">
         <v>960562141</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -898,7 +907,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2:I10" r:id="rId1" display="estu1@unheval.edu.pe" xr:uid="{A14E86E6-09BB-4F1B-BCB0-5B7E614EF16B}"/>
+    <hyperlink ref="I3:I10" r:id="rId1" display="estu1@unheval.edu.pe" xr:uid="{A14E86E6-09BB-4F1B-BCB0-5B7E614EF16B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/app/vistas/Import/subidas/ejemploEstu.xlsx
+++ b/app/vistas/Import/subidas/ejemploEstu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\neo\app\vistas\Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542A439F-45D7-4A18-91D1-F11168756487}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB5006F-20ED-4BAF-A773-DC190F443548}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55599993-8CC0-4731-8C75-F355957A80E5}"/>
   </bookViews>
@@ -249,15 +249,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -265,17 +271,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +617,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,31 +630,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>55</v>
       </c>
     </row>
